--- a/biology/Botanique/Majovskya/Majovskya.xlsx
+++ b/biology/Botanique/Majovskya/Majovskya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Majovskya est un genre de plantes à fleurs de la famille des Rosaceae. Il regroupe des espèces d'arbustes hybridogènes issues de croisements entre les genres Aria et Chamaemespilus.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Majovskya est dédicacé à Jozef Májovský (d) (1920–2012), botaniste slovaque spécialiste du genre Sorbus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Majovskya est dédicacé à Jozef Májovský (d) (1920–2012), botaniste slovaque spécialiste du genre Sorbus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits arbustes à feuilles simples, entières, blanchâtres-tomenteuses en dessous, avec quatre à huit paires de nervures latérales, sans lobes apparents, minutieusement dentelées à doublement dentelées. Les fleurs ont des pétales rosés et deux ou trois styles. Les alises sont de taille moyenne, rougeâtre, avec de petites lenticelles éparses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits arbustes à feuilles simples, entières, blanchâtres-tomenteuses en dessous, avec quatre à huit paires de nervures latérales, sans lobes apparents, minutieusement dentelées à doublement dentelées. Les fleurs ont des pétales rosés et deux ou trois styles. Les alises sont de taille moyenne, rougeâtre, avec de petites lenticelles éparses.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre n'est représenté qu'en Europe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre n'est représenté qu'en Europe.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 2017 à la suite d'analyses phylogénétiques, pour prendre en compte les taxons hybridogènes issus de croisements entre diverses espèces des genres Aria et Chamaemespilus. Il est traité comme un genre et non comme un nothogenre. L'espèce type est Majovskya sudetica[1].
-Majovskya a pour synonymes[1],[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce genre a été décrit en 2017 à la suite d'analyses phylogénétiques, pour prendre en compte les taxons hybridogènes issus de croisements entre diverses espèces des genres Aria et Chamaemespilus. Il est traité comme un genre et non comme un nothogenre. L'espèce type est Majovskya sudetica.
+Majovskya a pour synonymes, :
 Sorbus subgen. Chamaespilaria Májovský &amp; Bernátová, 2001
 ×Chamaearia Mezhenskyj in Mezhensky et al., 2012</t>
         </is>
@@ -637,9 +657,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (7 avril 2024)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (7 avril 2024) :
 Majovskya algoviensis (N.Mey.) Sennikov &amp; Kurtto
 Majovskya ambigua (Michalet ex Decne.) Sennikov &amp; Kurtto
 Majovskya haljamovae (Bernátová &amp; Májovský) Sennikov &amp; Kurtto
